--- a/biology/Zoologie/La_Femme_aux_serpents/La_Femme_aux_serpents.xlsx
+++ b/biology/Zoologie/La_Femme_aux_serpents/La_Femme_aux_serpents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Femme aux serpents est un récit autobiographique de Nicole Viloteau.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains dorment avec un ours en peluche. Nicole Viloteau, elle, dort avec des serpents. Elle les réchauffe, les caresse, les soigne... Car elle les aime.
 Cette passion peu commune a commencé très tôt : petite fille, déjà, elle apprivoise lézards et couleuvres. Et déjà elle sait qu'on ne l'enfermera pas dans un bureau : elle aime trop le ciel, le soleil, la terre.
@@ -545,7 +559,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicole Viloteau, La Femme aux serpents, J'ai lu n° 2022, 1986, 345 p.  (ISBN 2277220221). Rééd. 2000  (ISBN 2290309451).
  Portail de la littérature   Portail de l’herpétologie                    </t>
